--- a/Code/Results/Cases/Case_9_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993060716896198</v>
+        <v>0.9941180312692713</v>
       </c>
       <c r="D2">
-        <v>1.015421896522507</v>
+        <v>1.016132719165552</v>
       </c>
       <c r="E2">
-        <v>1.000211013008579</v>
+        <v>1.001172267766207</v>
       </c>
       <c r="F2">
-        <v>1.013616150590657</v>
+        <v>1.014074183311067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040920360994865</v>
+        <v>1.041268778203944</v>
       </c>
       <c r="J2">
-        <v>1.015450980413775</v>
+        <v>1.016476105686408</v>
       </c>
       <c r="K2">
-        <v>1.026670480801241</v>
+        <v>1.027371783335916</v>
       </c>
       <c r="L2">
-        <v>1.011667408866942</v>
+        <v>1.0126152951608</v>
       </c>
       <c r="M2">
-        <v>1.024888994854127</v>
+        <v>1.02534086367978</v>
       </c>
       <c r="N2">
-        <v>1.008479497651382</v>
+        <v>1.011179107447478</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028270254675788</v>
+        <v>1.028627884667406</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029928451665846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0304332177571</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019270424746719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979446009104064</v>
+        <v>0.9986636416458529</v>
       </c>
       <c r="D3">
-        <v>1.018705082625557</v>
+        <v>1.01905329326551</v>
       </c>
       <c r="E3">
-        <v>1.004156600353753</v>
+        <v>1.004818552854207</v>
       </c>
       <c r="F3">
-        <v>1.017141007358329</v>
+        <v>1.017452080466517</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041858607328762</v>
+        <v>1.042049298622562</v>
       </c>
       <c r="J3">
-        <v>1.018491455439758</v>
+        <v>1.019190803551412</v>
       </c>
       <c r="K3">
-        <v>1.029104094332449</v>
+        <v>1.029448052518124</v>
       </c>
       <c r="L3">
-        <v>1.014736571540626</v>
+        <v>1.015390148436849</v>
       </c>
       <c r="M3">
-        <v>1.027559164690823</v>
+        <v>1.027866424164961</v>
       </c>
       <c r="N3">
-        <v>1.009567454930605</v>
+        <v>1.011946923232159</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030383548511093</v>
+        <v>1.030626727218134</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031646576484905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031898377814303</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019736035789016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001033708888544</v>
+        <v>1.001542519815531</v>
       </c>
       <c r="D4">
-        <v>1.020784285799154</v>
+        <v>1.020905656215257</v>
       </c>
       <c r="E4">
-        <v>1.006657934653089</v>
+        <v>1.007133655390588</v>
       </c>
       <c r="F4">
-        <v>1.0193807129264</v>
+        <v>1.019600646869457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042440542316396</v>
+        <v>1.042532516706564</v>
       </c>
       <c r="J4">
-        <v>1.020411009198598</v>
+        <v>1.020906849914183</v>
       </c>
       <c r="K4">
-        <v>1.030638171107716</v>
+        <v>1.030758149632749</v>
       </c>
       <c r="L4">
-        <v>1.016676662973249</v>
+        <v>1.017146739227036</v>
       </c>
       <c r="M4">
-        <v>1.029250724317304</v>
+        <v>1.029468127749219</v>
       </c>
       <c r="N4">
-        <v>1.010253549502655</v>
+        <v>1.012431919921065</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031722322393318</v>
+        <v>1.031894384741309</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032732230887029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032825731929467</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020027106584209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002321316034272</v>
+        <v>1.002743108684029</v>
       </c>
       <c r="D5">
-        <v>1.021654023073646</v>
+        <v>1.021681281499635</v>
       </c>
       <c r="E5">
-        <v>1.007702576794037</v>
+        <v>1.00810113424657</v>
       </c>
       <c r="F5">
-        <v>1.020315094942449</v>
+        <v>1.020497349776616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042682307770784</v>
+        <v>1.042733255966322</v>
       </c>
       <c r="J5">
-        <v>1.02121210252938</v>
+        <v>1.021623471644859</v>
       </c>
       <c r="K5">
-        <v>1.0312797135733</v>
+        <v>1.031306667803568</v>
       </c>
       <c r="L5">
-        <v>1.017486628071138</v>
+        <v>1.017880586448809</v>
       </c>
       <c r="M5">
-        <v>1.029955752100679</v>
+        <v>1.030135966831517</v>
       </c>
       <c r="N5">
-        <v>1.010540488371484</v>
+        <v>1.012634945161378</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032280311295474</v>
+        <v>1.032422940808513</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033193102398058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033221532863168</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020148958744966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002543052340618</v>
+        <v>1.002949619137627</v>
       </c>
       <c r="D6">
-        <v>1.021806906425649</v>
+        <v>1.021817820260587</v>
       </c>
       <c r="E6">
-        <v>1.0078834118384</v>
+        <v>1.008268422159636</v>
       </c>
       <c r="F6">
-        <v>1.020474236457845</v>
+        <v>1.020649901706863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042726238287232</v>
+        <v>1.042769985349986</v>
       </c>
       <c r="J6">
-        <v>1.021352295527261</v>
+        <v>1.021748867947142</v>
       </c>
       <c r="K6">
-        <v>1.031394259199148</v>
+        <v>1.031405051803402</v>
       </c>
       <c r="L6">
-        <v>1.01762806547264</v>
+        <v>1.018008654046887</v>
       </c>
       <c r="M6">
-        <v>1.030076416485926</v>
+        <v>1.030250124561659</v>
       </c>
       <c r="N6">
-        <v>1.010591670116068</v>
+        <v>1.012671175654954</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03237581016512</v>
+        <v>1.032513290019555</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033282921812571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033300790645937</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02017156426346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001068511766053</v>
+        <v>1.001586058842752</v>
       </c>
       <c r="D7">
-        <v>1.020816046747633</v>
+        <v>1.020943362932888</v>
       </c>
       <c r="E7">
-        <v>1.006688515504636</v>
+        <v>1.007172412952257</v>
       </c>
       <c r="F7">
-        <v>1.019400814210067</v>
+        <v>1.019624523269097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042453736801648</v>
+        <v>1.042548484826022</v>
       </c>
       <c r="J7">
-        <v>1.020438843642997</v>
+        <v>1.020943204036771</v>
       </c>
       <c r="K7">
-        <v>1.030666648411085</v>
+        <v>1.030792505129077</v>
       </c>
       <c r="L7">
-        <v>1.016703906205238</v>
+        <v>1.017182064567695</v>
       </c>
       <c r="M7">
-        <v>1.029267669461161</v>
+        <v>1.029488805571129</v>
       </c>
       <c r="N7">
-        <v>1.010266199321776</v>
+        <v>1.012470896313323</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031735733504379</v>
+        <v>1.031910750049243</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032772670099958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032872320414465</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020037846009025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947487132330891</v>
+        <v>0.9957242422876312</v>
       </c>
       <c r="D8">
-        <v>1.016566380419759</v>
+        <v>1.017178830559482</v>
       </c>
       <c r="E8">
-        <v>1.001576616572933</v>
+        <v>1.002467316917413</v>
       </c>
       <c r="F8">
-        <v>1.014825798908759</v>
+        <v>1.015248209244673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041255356489593</v>
+        <v>1.041562026244513</v>
       </c>
       <c r="J8">
-        <v>1.016510348580999</v>
+        <v>1.01745720642106</v>
       </c>
       <c r="K8">
-        <v>1.027526529637274</v>
+        <v>1.028131024912918</v>
       </c>
       <c r="L8">
-        <v>1.012735273855343</v>
+        <v>1.013613970232551</v>
       </c>
       <c r="M8">
-        <v>1.025808621484981</v>
+        <v>1.026225520424072</v>
       </c>
       <c r="N8">
-        <v>1.008862288191514</v>
+        <v>1.011540837625221</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028998089740727</v>
+        <v>1.029328042597533</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030556928755916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030995494521642</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019447023761881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830082743009991</v>
+        <v>0.9848283218522722</v>
       </c>
       <c r="D9">
-        <v>1.008682190476145</v>
+        <v>1.010187889138735</v>
       </c>
       <c r="E9">
-        <v>0.9921243119252335</v>
+        <v>0.9937610673499643</v>
       </c>
       <c r="F9">
-        <v>1.006419887221253</v>
+        <v>1.007210470770631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.038928525839293</v>
+        <v>1.039623895428234</v>
       </c>
       <c r="J9">
-        <v>1.009175660104469</v>
+        <v>1.010928446267727</v>
       </c>
       <c r="K9">
-        <v>1.021635958405855</v>
+        <v>1.023117809504271</v>
       </c>
       <c r="L9">
-        <v>1.005346472258605</v>
+        <v>1.006956184453878</v>
       </c>
       <c r="M9">
-        <v>1.01940965792008</v>
+        <v>1.020187636398115</v>
       </c>
       <c r="N9">
-        <v>1.006230716843079</v>
+        <v>1.009700676915455</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023933637902266</v>
+        <v>1.024549370016779</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026388570887766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027447257732365</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018305707082986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749334524401073</v>
+        <v>0.9774063482529919</v>
       </c>
       <c r="D10">
-        <v>1.003298228443279</v>
+        <v>1.00546967488157</v>
       </c>
       <c r="E10">
-        <v>0.9856791224457159</v>
+        <v>0.9878925081456311</v>
       </c>
       <c r="F10">
-        <v>1.00093408122877</v>
+        <v>1.002009414319046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037299653652392</v>
+        <v>1.038285089795472</v>
       </c>
       <c r="J10">
-        <v>1.004178148643062</v>
+        <v>1.006545971744337</v>
       </c>
       <c r="K10">
-        <v>1.01760818661671</v>
+        <v>1.019740869960337</v>
       </c>
       <c r="L10">
-        <v>1.000311850087745</v>
+        <v>1.002483863061457</v>
       </c>
       <c r="M10">
-        <v>1.015286491006349</v>
+        <v>1.016342482702061</v>
       </c>
       <c r="N10">
-        <v>1.004448683324593</v>
+        <v>1.008589884362061</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020722913555991</v>
+        <v>1.021558629080713</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023557655901198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025078226078126</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017537109842737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9728001937752689</v>
+        <v>0.9754671488188582</v>
       </c>
       <c r="D11">
-        <v>1.00201887129491</v>
+        <v>1.004374532914859</v>
       </c>
       <c r="E11">
-        <v>0.9841481121199145</v>
+        <v>0.9865286323006829</v>
       </c>
       <c r="F11">
-        <v>1.00136945007331</v>
+        <v>1.002520136339803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037075717725903</v>
+        <v>1.0381339857255</v>
       </c>
       <c r="J11">
-        <v>1.003349989550416</v>
+        <v>1.005897376325206</v>
       </c>
       <c r="K11">
-        <v>1.016902814826069</v>
+        <v>1.019214420804219</v>
       </c>
       <c r="L11">
-        <v>0.9993752940820971</v>
+        <v>1.001709150440081</v>
       </c>
       <c r="M11">
-        <v>1.016265586699504</v>
+        <v>1.017394682559834</v>
       </c>
       <c r="N11">
-        <v>1.004271626795628</v>
+        <v>1.008726807729814</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02194247069428</v>
+        <v>1.022835573113196</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023092288745644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024742548612531</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01749519660071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9725165919879336</v>
+        <v>0.9751916291789192</v>
       </c>
       <c r="D12">
-        <v>1.001933413551332</v>
+        <v>1.004294297857667</v>
       </c>
       <c r="E12">
-        <v>0.9840484152106246</v>
+        <v>0.9864303465969325</v>
       </c>
       <c r="F12">
-        <v>1.002496107060804</v>
+        <v>1.00364366941821</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03717356161483</v>
+        <v>1.038226641406462</v>
       </c>
       <c r="J12">
-        <v>1.003531427645282</v>
+        <v>1.0060843413577</v>
       </c>
       <c r="K12">
-        <v>1.017023665913802</v>
+        <v>1.019339685767108</v>
       </c>
       <c r="L12">
-        <v>0.9994877390270259</v>
+        <v>1.001822220593154</v>
       </c>
       <c r="M12">
-        <v>1.017575641336051</v>
+        <v>1.01870139382883</v>
       </c>
       <c r="N12">
-        <v>1.004432361012383</v>
+        <v>1.008949675390266</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023310423127619</v>
+        <v>1.024200569736968</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023177736968195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024831115394582</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01757962334447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9736515046891736</v>
+        <v>0.97617268739078</v>
       </c>
       <c r="D13">
-        <v>1.002778268718828</v>
+        <v>1.0049916428073</v>
       </c>
       <c r="E13">
-        <v>0.9850546029681031</v>
+        <v>0.9872928256260386</v>
       </c>
       <c r="F13">
-        <v>1.004255865555832</v>
+        <v>1.005332489293695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037539238786334</v>
+        <v>1.03851958624837</v>
       </c>
       <c r="J13">
-        <v>1.004517536055993</v>
+        <v>1.006924399898473</v>
       </c>
       <c r="K13">
-        <v>1.017808578624791</v>
+        <v>1.01998011681162</v>
       </c>
       <c r="L13">
-        <v>1.000428828226556</v>
+        <v>1.002622724957389</v>
       </c>
       <c r="M13">
-        <v>1.019258220051836</v>
+        <v>1.020314542199702</v>
       </c>
       <c r="N13">
-        <v>1.004872552631879</v>
+        <v>1.009220388480691</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024921190873372</v>
+        <v>1.025756223217672</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02373018100405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02528115187696</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017770418519583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9750712349081289</v>
+        <v>0.9774153305840112</v>
       </c>
       <c r="D14">
-        <v>1.003780723960814</v>
+        <v>1.005825324379198</v>
       </c>
       <c r="E14">
-        <v>0.9862451586174192</v>
+        <v>0.988321002202132</v>
       </c>
       <c r="F14">
-        <v>1.00574321036458</v>
+        <v>1.006741631073415</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037912012127057</v>
+        <v>1.038812814662223</v>
       </c>
       <c r="J14">
-        <v>1.00555634934183</v>
+        <v>1.00779585056945</v>
       </c>
       <c r="K14">
-        <v>1.018648567612278</v>
+        <v>1.020655039310841</v>
       </c>
       <c r="L14">
-        <v>1.001448534361945</v>
+        <v>1.003483843161033</v>
       </c>
       <c r="M14">
-        <v>1.020574452701043</v>
+        <v>1.021554323805971</v>
       </c>
       <c r="N14">
-        <v>1.005301795442755</v>
+        <v>1.009429961755073</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026136856556741</v>
+        <v>1.026911347620186</v>
       </c>
       <c r="Q14">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024325544357726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025759929409398</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017950764218634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757440074133303</v>
+        <v>0.9780098586159793</v>
       </c>
       <c r="D15">
-        <v>1.004242835265565</v>
+        <v>1.006212904397822</v>
       </c>
       <c r="E15">
-        <v>0.9867928990820086</v>
+        <v>0.9887979755356318</v>
       </c>
       <c r="F15">
-        <v>1.006295711559382</v>
+        <v>1.007260296786954</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038068264445044</v>
+        <v>1.038935053581866</v>
       </c>
       <c r="J15">
-        <v>1.006004439954422</v>
+        <v>1.008170134474405</v>
       </c>
       <c r="K15">
-        <v>1.019013693700712</v>
+        <v>1.020947316070763</v>
       </c>
       <c r="L15">
-        <v>1.001894915285862</v>
+        <v>1.003861161486336</v>
       </c>
       <c r="M15">
-        <v>1.021028595352608</v>
+        <v>1.021975407075228</v>
       </c>
       <c r="N15">
-        <v>1.005474962513963</v>
+        <v>1.009500700809629</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026533703223648</v>
+        <v>1.027282044294896</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02458966484737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025973101739736</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018022835464397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9789159054638942</v>
+        <v>0.9808571435187659</v>
       </c>
       <c r="D16">
-        <v>1.006338380345287</v>
+        <v>1.007996012896959</v>
       </c>
       <c r="E16">
-        <v>0.9892956882045442</v>
+        <v>0.9910128415491996</v>
       </c>
       <c r="F16">
-        <v>1.008307526628057</v>
+        <v>1.009134237300261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038692436572056</v>
+        <v>1.039423200831183</v>
       </c>
       <c r="J16">
-        <v>1.007912205462546</v>
+        <v>1.009772111842981</v>
       </c>
       <c r="K16">
-        <v>1.020557784415556</v>
+        <v>1.022186124125071</v>
       </c>
       <c r="L16">
-        <v>1.003823684861104</v>
+        <v>1.005509119053105</v>
       </c>
       <c r="M16">
-        <v>1.022492146881006</v>
+        <v>1.023304306633029</v>
       </c>
       <c r="N16">
-        <v>1.006137526186804</v>
+        <v>1.009725102858339</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.027651390940755</v>
+        <v>1.028293324574053</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025684627808752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026852500173207</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018293224507815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806186874246406</v>
+        <v>0.9824159388651995</v>
       </c>
       <c r="D17">
-        <v>1.007431202373084</v>
+        <v>1.008946513623653</v>
       </c>
       <c r="E17">
-        <v>0.9906052805911898</v>
+        <v>0.9921975449215209</v>
       </c>
       <c r="F17">
-        <v>1.009080462084968</v>
+        <v>1.009847095381952</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038977388170686</v>
+        <v>1.039649339295238</v>
       </c>
       <c r="J17">
-        <v>1.008842589056475</v>
+        <v>1.010567030065626</v>
       </c>
       <c r="K17">
-        <v>1.021310178300379</v>
+        <v>1.022799475589572</v>
       </c>
       <c r="L17">
-        <v>1.004780063132561</v>
+        <v>1.006343776628134</v>
       </c>
       <c r="M17">
-        <v>1.022931129360223</v>
+        <v>1.023684644481802</v>
       </c>
       <c r="N17">
-        <v>1.006424760452965</v>
+        <v>1.009821364781733</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027868021224301</v>
+        <v>1.028463662244975</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026219232754986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027289036056113</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018410309107385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9811559365067547</v>
+        <v>0.9829383283319801</v>
       </c>
       <c r="D18">
-        <v>1.007712086111943</v>
+        <v>1.00920971757779</v>
       </c>
       <c r="E18">
-        <v>0.9909510144060624</v>
+        <v>0.9925350065281161</v>
       </c>
       <c r="F18">
-        <v>1.008678921518986</v>
+        <v>1.00944179005714</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038975182348974</v>
+        <v>1.03964531039877</v>
       </c>
       <c r="J18">
-        <v>1.008950251406093</v>
+        <v>1.01066177037525</v>
       </c>
       <c r="K18">
-        <v>1.021399013612648</v>
+        <v>1.022871350607392</v>
       </c>
       <c r="L18">
-        <v>1.004927794893982</v>
+        <v>1.006483851732233</v>
       </c>
       <c r="M18">
-        <v>1.022349508422519</v>
+        <v>1.023099512126503</v>
       </c>
       <c r="N18">
-        <v>1.006388369906517</v>
+        <v>1.009754837775034</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027167701104792</v>
+        <v>1.027760692510568</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02627024949658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027326935769633</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018387826229512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9806300863306008</v>
+        <v>0.9825022706000074</v>
       </c>
       <c r="D19">
-        <v>1.007269489041906</v>
+        <v>1.008853203038614</v>
       </c>
       <c r="E19">
-        <v>0.9904210985538753</v>
+        <v>0.9920906294868416</v>
       </c>
       <c r="F19">
-        <v>1.007112867103617</v>
+        <v>1.007918408471744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038724108447933</v>
+        <v>1.039439026258592</v>
       </c>
       <c r="J19">
-        <v>1.008306341358468</v>
+        <v>1.010104417224153</v>
       </c>
       <c r="K19">
-        <v>1.020900033773285</v>
+        <v>1.022457115454019</v>
       </c>
       <c r="L19">
-        <v>1.004341806857352</v>
+        <v>1.00598201511035</v>
       </c>
       <c r="M19">
-        <v>1.020746051517615</v>
+        <v>1.021538027684403</v>
       </c>
       <c r="N19">
-        <v>1.006068580706389</v>
+        <v>1.009524695144743</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025569553633291</v>
+        <v>1.026195940892281</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025923930896912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027041160817207</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018243594454759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9770875526160318</v>
+        <v>0.979346502069831</v>
       </c>
       <c r="D20">
-        <v>1.004754506495067</v>
+        <v>1.00671805741073</v>
       </c>
       <c r="E20">
-        <v>0.9874039429869998</v>
+        <v>0.9894259226227489</v>
       </c>
       <c r="F20">
-        <v>1.002391852180104</v>
+        <v>1.003373837919795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.03775648147611</v>
+        <v>1.038649151606073</v>
       </c>
       <c r="J20">
-        <v>1.005531205754881</v>
+        <v>1.007697471325912</v>
       </c>
       <c r="K20">
-        <v>1.018714265678886</v>
+        <v>1.020643797603359</v>
       </c>
       <c r="L20">
-        <v>1.001671954920552</v>
+        <v>1.003657288130258</v>
       </c>
       <c r="M20">
-        <v>1.016392773734113</v>
+        <v>1.017357620750099</v>
       </c>
       <c r="N20">
-        <v>1.004940357363581</v>
+        <v>1.008817163282611</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021587659926763</v>
+        <v>1.022351252521785</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02438246206758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02576343949831</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01774678247156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9707026778042565</v>
+        <v>0.9736736374720035</v>
       </c>
       <c r="D21">
-        <v>1.000477754513579</v>
+        <v>1.00312094211494</v>
       </c>
       <c r="E21">
-        <v>0.982290338799515</v>
+        <v>0.984953161444955</v>
       </c>
       <c r="F21">
-        <v>0.9977074315486345</v>
+        <v>0.9990020441067214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036406515252034</v>
+        <v>1.03760437764908</v>
       </c>
       <c r="J21">
-        <v>1.001478513583384</v>
+        <v>1.004314833763842</v>
       </c>
       <c r="K21">
-        <v>1.015450081338987</v>
+        <v>1.01804342754614</v>
       </c>
       <c r="L21">
-        <v>0.9976151773069718</v>
+        <v>1.000225320326949</v>
       </c>
       <c r="M21">
-        <v>1.012732367901442</v>
+        <v>1.014002347765843</v>
       </c>
       <c r="N21">
-        <v>1.003472325964335</v>
+        <v>1.00828986882969</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018648864596366</v>
+        <v>1.019653999478746</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022077792103754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023928471092429</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017151337115852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9666494554212789</v>
+        <v>0.9700788157109039</v>
       </c>
       <c r="D22">
-        <v>0.9977681701578226</v>
+        <v>1.000848154024621</v>
       </c>
       <c r="E22">
-        <v>0.9790595962362508</v>
+        <v>0.982135197795131</v>
       </c>
       <c r="F22">
-        <v>0.9948721628877185</v>
+        <v>0.9963680168037103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035543988683267</v>
+        <v>1.036938458316931</v>
       </c>
       <c r="J22">
-        <v>0.9989265796820355</v>
+        <v>1.002190864679445</v>
       </c>
       <c r="K22">
-        <v>1.013383970067372</v>
+        <v>1.016402827522192</v>
       </c>
       <c r="L22">
-        <v>0.9950576221020135</v>
+        <v>0.9980690660947479</v>
       </c>
       <c r="M22">
-        <v>1.010545892294929</v>
+        <v>1.012011768993026</v>
       </c>
       <c r="N22">
-        <v>1.002550190635278</v>
+        <v>1.007958577908141</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.016918358870755</v>
+        <v>1.018078540627465</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020603178445478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02275345555251</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016775820948236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9687905424627252</v>
+        <v>0.9719565898663058</v>
       </c>
       <c r="D23">
-        <v>0.9991912640224065</v>
+        <v>1.002023506293808</v>
       </c>
       <c r="E23">
-        <v>0.9807624732523701</v>
+        <v>0.9835999311279218</v>
       </c>
       <c r="F23">
-        <v>0.9963732213397771</v>
+        <v>0.9977534902763413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.035994432685008</v>
+        <v>1.037276911123382</v>
       </c>
       <c r="J23">
-        <v>1.000268913955912</v>
+        <v>1.003287317743762</v>
       </c>
       <c r="K23">
-        <v>1.014465575766267</v>
+        <v>1.0172430986347</v>
       </c>
       <c r="L23">
-        <v>0.9964030079683315</v>
+        <v>0.9991829017854225</v>
       </c>
       <c r="M23">
-        <v>1.011702383197083</v>
+        <v>1.013055735945649</v>
       </c>
       <c r="N23">
-        <v>1.00303212541043</v>
+        <v>1.008081518500661</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.017833674528784</v>
+        <v>1.018904796751687</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021358134532293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023336834937916</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016964203517307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9770234428747961</v>
+        <v>0.9792943526446591</v>
       </c>
       <c r="D24">
-        <v>1.00468795425797</v>
+        <v>1.00666263739633</v>
       </c>
       <c r="E24">
-        <v>0.9873335271177494</v>
+        <v>0.9893670236525567</v>
       </c>
       <c r="F24">
-        <v>1.00216799829959</v>
+        <v>1.003155969380139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.037714133051945</v>
+        <v>1.038612955464252</v>
       </c>
       <c r="J24">
-        <v>1.005435573727748</v>
+        <v>1.007613424843778</v>
       </c>
       <c r="K24">
-        <v>1.018633241299715</v>
+        <v>1.020573751256502</v>
       </c>
       <c r="L24">
-        <v>1.00158679247334</v>
+        <v>1.003583475274309</v>
       </c>
       <c r="M24">
-        <v>1.016157148127087</v>
+        <v>1.017127888410923</v>
       </c>
       <c r="N24">
-        <v>1.004891246700643</v>
+        <v>1.008779033037493</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021359428575728</v>
+        <v>1.022127725121097</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024297338078915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025683433751217</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017720832632447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861456282737797</v>
+        <v>0.9877192330479631</v>
       </c>
       <c r="D25">
-        <v>1.010798794375612</v>
+        <v>1.012050565906399</v>
       </c>
       <c r="E25">
-        <v>0.9946484950886662</v>
+        <v>0.9960667819868196</v>
       </c>
       <c r="F25">
-        <v>1.008647568267967</v>
+        <v>1.009330540814497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039571045459619</v>
+        <v>1.040154993114202</v>
       </c>
       <c r="J25">
-        <v>1.011148415310931</v>
+        <v>1.012667082010739</v>
       </c>
       <c r="K25">
-        <v>1.023231754369805</v>
+        <v>1.024464648829263</v>
       </c>
       <c r="L25">
-        <v>1.007330458245361</v>
+        <v>1.008726464503208</v>
       </c>
       <c r="M25">
-        <v>1.021113108853366</v>
+        <v>1.021785718521331</v>
       </c>
       <c r="N25">
-        <v>1.006943979497563</v>
+        <v>1.010162765031577</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025281835711935</v>
+        <v>1.025814172517823</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027545904121749</v>
+        <v>1.028431330605139</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018617044316881</v>
       </c>
     </row>
   </sheetData>
